--- a/docs/Data/ZincForColds.xlsx
+++ b/docs/Data/ZincForColds.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\BYUI_M221_Book_R\docs\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC16C3B-32D8-4674-AA24-386B67BD8891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14355" windowHeight="7740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Time</t>
   </si>
@@ -74,15 +91,18 @@
   <si>
     <t>Duration of Symptoms (Placebo)</t>
   </si>
+  <si>
+    <t>Renamed as cold_treatments.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +543,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,9 +561,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,18 +581,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet2" xfId="1"/>
-    <cellStyle name="Normal_Sheet3" xfId="2"/>
+    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -616,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,9 +676,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -682,6 +728,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -857,22 +921,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="22.85546875" style="1"/>
+    <col min="3" max="3" width="72.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="22.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -883,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -894,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -905,7 +969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -913,15 +977,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -929,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -937,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -945,7 +1012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -953,7 +1020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.25</v>
       </c>
@@ -961,7 +1028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -969,7 +1036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -977,7 +1044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.25</v>
       </c>
@@ -985,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -993,7 +1060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1001,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -1009,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.5</v>
       </c>
@@ -1017,7 +1084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -1025,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1033,7 +1100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1041,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1049,7 +1116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1057,7 +1124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1065,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1073,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1081,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -1089,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -1097,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1105,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1113,47 +1180,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -1165,16 +1232,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1253,7 @@
       <c r="G1" s="38"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="49.5" thickBot="1">
+    <row r="2" spans="1:8" ht="47.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1273,7 @@
       </c>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="36"/>
       <c r="B3" s="41"/>
       <c r="C3" s="3" t="s">
@@ -1222,7 +1289,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" ht="24.75" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1311,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36"/>
       <c r="B5" s="11" t="s">
         <v>0</v>
@@ -1266,7 +1333,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -1276,7 +1343,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1286,12 +1353,12 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24">
+    <row r="9" spans="1:8" ht="23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1307,7 +1374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1320,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1333,7 +1400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1346,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1359,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1372,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1385,7 +1452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1398,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1411,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1424,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1437,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1450,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1463,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1476,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1489,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1502,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1515,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1528,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1541,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1554,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1567,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1580,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1607,48 +1674,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="49.5" thickBot="1">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="47.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="47"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
@@ -1658,11 +1725,11 @@
       <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:9" ht="24.75" thickBot="1">
-      <c r="A4" s="58" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -1685,8 +1752,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
       <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1773,7 @@
         <v>5.327941570105022E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -1715,12 +1782,12 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24">
+    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1736,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1749,7 +1816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1762,7 +1829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1775,7 +1842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1788,7 +1855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1801,7 +1868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1814,7 +1881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1827,7 +1894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1840,7 +1907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1853,7 +1920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1879,7 +1946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1892,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1905,7 +1972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1918,7 +1985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1931,7 +1998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1944,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1957,7 +2024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1970,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1983,7 +2050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1996,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2009,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
